--- a/ejemplos/modelos_arbol_individual-masas_puras/Pnigra_Cataluna_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_puras/Pnigra_Cataluna_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,39 +452,42 @@
         </is>
       </c>
       <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="F2">
         <v>33</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1011.518082761824</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>18.66204722222222</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.47746482927569</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.663104316957382</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>41.77561516248057</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>29.52449301542618</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>28.81230955050223</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>27.95089711046655</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>27.22798329838774</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>25.72735591241332</v>
       </c>
     </row>
@@ -497,37 +505,40 @@
       <c r="C3">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>286.4788975654116</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.48033125</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.477464829275686</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.7957691156811258</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>42.19624016253441</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>34.97078336116383</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>37.67547213611759</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>36.16740096534026</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>34.49436183503614</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>32.60345731325937</v>
       </c>
     </row>
@@ -545,37 +556,40 @@
       <c r="C4">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="F4">
         <v>27</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1145.915590261646</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20.0670875</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9.659154943091893</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.8668718175297155</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>42.24261216054439</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>38.83543643484491</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>41.07149737192313</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>39.35532232278482</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>37.56712281938714</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>35.43365989613564</v>
       </c>
     </row>
